--- a/openMPI-Kmeans/handin/drawpic.xlsx
+++ b/openMPI-Kmeans/handin/drawpic.xlsx
@@ -879,11 +879,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -900,20 +901,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1557,6 +1557,27 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$3:$H$3</c:f>
@@ -1594,6 +1615,27 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$4:$H$4</c:f>
@@ -1628,11 +1670,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2108512712"/>
-        <c:axId val="2108519560"/>
+        <c:axId val="2110199384"/>
+        <c:axId val="2118881720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2108512712"/>
+        <c:axId val="2110199384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1668,7 +1710,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108519560"/>
+        <c:crossAx val="2118881720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1676,7 +1718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108519560"/>
+        <c:axId val="2118881720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1706,7 +1748,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108512712"/>
+        <c:crossAx val="2110199384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1801,6 +1843,27 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$11:$H$11</c:f>
@@ -1838,6 +1901,27 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$12:$H$12</c:f>
@@ -1872,11 +1956,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2116432344"/>
-        <c:axId val="2116458168"/>
+        <c:axId val="2122259112"/>
+        <c:axId val="2122003336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2116432344"/>
+        <c:axId val="2122259112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1912,7 +1996,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116458168"/>
+        <c:crossAx val="2122003336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1920,7 +2004,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2116458168"/>
+        <c:axId val="2122003336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,7 +2034,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116432344"/>
+        <c:crossAx val="2122259112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2382,8 +2466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -2394,23 +2478,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:16">
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="26" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="28"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="31"/>
     </row>
     <row r="2" spans="3:16">
       <c r="D2" s="10" t="s">
@@ -2459,7 +2543,7 @@
       <c r="H3" s="12">
         <v>49.2</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="19"/>
       <c r="K3" s="13"/>
       <c r="L3" s="10"/>
@@ -2490,7 +2574,7 @@
       <c r="H4" s="12">
         <v>4.88</v>
       </c>
-      <c r="I4" s="33"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="19"/>
       <c r="K4" s="14"/>
       <c r="L4" s="21"/>
@@ -2533,7 +2617,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="34"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="14"/>
       <c r="K6" s="10"/>
       <c r="L6" s="14"/>
@@ -2554,7 +2638,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="32"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -2579,13 +2663,13 @@
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="3:16">
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="3:16">
       <c r="D10" s="10" t="s">
@@ -2664,12 +2748,12 @@
     </row>
     <row r="29" spans="4:10">
       <c r="D29" s="4"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
     </row>
     <row r="30" spans="4:10">
       <c r="D30" s="11"/>
@@ -2736,12 +2820,12 @@
     </row>
     <row r="38" spans="4:10">
       <c r="D38" s="10"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="28"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="31"/>
     </row>
     <row r="39" spans="4:10">
       <c r="D39" s="10"/>
@@ -2790,12 +2874,12 @@
     </row>
     <row r="46" spans="4:10">
       <c r="D46" s="10"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="28"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="31"/>
     </row>
     <row r="47" spans="4:10">
       <c r="D47" s="10"/>
@@ -2894,11 +2978,11 @@
         <v>14</v>
       </c>
       <c r="D75" s="3"/>
-      <c r="E75" s="24" t="s">
+      <c r="E75" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
     </row>
     <row r="76" spans="2:10">
       <c r="D76" s="6" t="s">
